--- a/HWP_polarimeter_low.xlsx
+++ b/HWP_polarimeter_low.xlsx
@@ -10,6 +10,7 @@
     <sheet name="measured" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="calculated" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Adjusted" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Adjusted2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1521,4 +1522,435 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jxx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jyy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>trace</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0004618726657399049</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9995381342511355</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.004801445775495194</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9991228029116703</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0315759714091005</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9684240233729264</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.1717474004983522</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9978364701721175</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.121417889823968</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8785820704600988</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.3217453404712551</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9936888867331871</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.251741460114978</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7482584437466685</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.4269638638656761</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9878607434732226</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4241549422155633</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5758449075404576</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.4855899895252066</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9831000484003465</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5939256348482375</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4060741882444195</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4747920702346514</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9684989260036585</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7437721743770547</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2562276876743538</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.4160445543303309</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9650358176843653</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8718430725792202</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1281568523263641</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.3046078503604101</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9621064070049569</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9506213267939327</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04937863873068832</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.1554611713297683</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9544555085008001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9778494965890689</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02215048487196899</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01034466067816938</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9568943059686518</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9454368594929669</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05456310445527547</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1743640845519795</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.957633655619021</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8668626798317627</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1331372439452539</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3131274581478746</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9652740415027411</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7362078201682305</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2637920477012068</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4238019795912741</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9708044347182189</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.58080990058667</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4191899350227959</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4819649903581523</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9776408461057811</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>70</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4154959398797902</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.584503902238563</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4830881369867478</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9810299839833514</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.25485053654043</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7451493665712157</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.428768891175602</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9878818985563395</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>80</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1186921997024051</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8813077615318918</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.318567373911987</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9937615522489089</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>85</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.03335612927895004</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.966643863921934</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1758824771011767</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9973822825208924</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>90</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0006876719185082963</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9993123347381293</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.00240164221016018</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9986371510230498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/HWP_polarimeter_low.xlsx
+++ b/HWP_polarimeter_low.xlsx
@@ -11,6 +11,7 @@
     <sheet name="calculated" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Adjusted" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Adjusted2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="rho" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1953,4 +1954,435 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jxx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jyy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>trace_sq</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.000506817080977578</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9994933377741827</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.004801290864711461</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9990332939064652</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.03154104479697824</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9684590087845358</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.1717602611156163</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9979108637998201</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1214340627213908</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8785664893102039</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.3217326011874075</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.99364904106151</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2517583769675233</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7482419850665917</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.4269370214922129</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9877987892309996</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.424158175943422</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5758418789718585</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.4855717765803552</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9830639282202962</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5939355094920483</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4060644546166343</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4748352469848616</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9685847542970327</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7437731041825903</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2562254010684298</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.4160468140586621</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9650397896348101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8718868327665467</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1281131623507801</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.3046338543527607</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9622032019548354</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.950662521476947</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04933725337367501</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.1554673430906546</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9545335838466994</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9778614205294466</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02213860108200471</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01034475739352828</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9569171034287971</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9454666834656507</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05453331352093595</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1743684209333196</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9576898242646681</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8668700253609699</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1331299456045153</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3131342195039139</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9652933021346404</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7362297773998635</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2637702257249902</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4238350725941739</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9708813546310823</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5808107695672143</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4191892603515385</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4819689331889778</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9776488911579724</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>70</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4154905655747549</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5845093624310944</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4831127830167778</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9810795270796667</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2548624967861255</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7451378698426443</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4287498866127726</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9878382678826222</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>80</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1187095330880051</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8812910806824168</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3185539706103371</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9937191865195772</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>85</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.03333951007432865</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9666604933782167</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1758887008222358</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9974177025440816</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>90</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0007035867102550072</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9992963996430539</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.002401609023337846</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.998605324825631</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/HWP_polarimeter_low.xlsx
+++ b/HWP_polarimeter_low.xlsx
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000506817080977578</v>
+        <v>0.0004556516565965182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9994933377741827</v>
+        <v>0.9995443284056221</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.004801290864711461</v>
+        <v>-0.004801505208261348</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9990332939064652</v>
+        <v>0.9991351809708082</v>
       </c>
     </row>
     <row r="3">
@@ -2027,19 +2027,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03154104479697824</v>
+        <v>0.03159516540727657</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9684590087845358</v>
+        <v>0.9684046303257157</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1717602611156163</v>
+        <v>-0.1717403161994444</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9979108637998201</v>
+        <v>0.9977952549299695</v>
       </c>
     </row>
     <row r="4">
@@ -2047,19 +2047,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1214340627213908</v>
+        <v>0.1214234251945592</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8785664893102039</v>
+        <v>0.8785761258273408</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3217326011874075</v>
+        <v>-0.321740429374368</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.99364904106151</v>
+        <v>0.9936734648477634</v>
       </c>
     </row>
     <row r="5">
@@ -2067,19 +2067,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2517583769675233</v>
+        <v>0.2517663689859098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7482419850665917</v>
+        <v>0.7482334101198004</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4269370214922129</v>
+        <v>-0.4269208493141894</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9877987892309996</v>
+        <v>0.9877623637301522</v>
       </c>
     </row>
     <row r="6">
@@ -2087,19 +2087,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.424158175943422</v>
+        <v>0.4241544570131127</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5758418789718585</v>
+        <v>0.5758445626302324</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4855717765803552</v>
+        <v>-0.4855903381015043</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9830639282202962</v>
+        <v>0.9830999166299585</v>
       </c>
     </row>
     <row r="7">
@@ -2107,19 +2107,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5939355094920483</v>
+        <v>0.593930851464046</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4060644546166343</v>
+        <v>0.4060690503698336</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4748352469848616</v>
+        <v>-0.4748181526206643</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9685847542970327</v>
+        <v>0.9685504861052662</v>
       </c>
     </row>
     <row r="8">
@@ -2127,19 +2127,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7437731041825903</v>
+        <v>0.7437556182555564</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2562254010684298</v>
+        <v>0.2562106935877668</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4160468140586621</v>
+        <v>-0.4160448703749413</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9650397896348101</v>
+        <v>0.9650030075260327</v>
       </c>
     </row>
     <row r="9">
@@ -2147,19 +2147,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8718868327665467</v>
+        <v>0.8718649475869994</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1281131623507801</v>
+        <v>0.1281349482051185</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3046338543527607</v>
+        <v>-0.304625752488861</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9622032019548354</v>
+        <v>0.9621607499412194</v>
       </c>
     </row>
     <row r="10">
@@ -2167,19 +2167,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.950662521476947</v>
+        <v>0.9506459195392082</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04933725337367501</v>
+        <v>0.04935237740162945</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1554673430906546</v>
+        <v>-0.1554699319545612</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9545335838466994</v>
+        <v>0.9545051209756513</v>
       </c>
     </row>
     <row r="11">
@@ -2187,19 +2187,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9778614205294466</v>
+        <v>0.9778767658406288</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02213860108200471</v>
+        <v>0.02212268496290078</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01034475739352828</v>
+        <v>0.01034525608435063</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9569171034287971</v>
+        <v>0.9569464310077972</v>
       </c>
     </row>
     <row r="12">
@@ -2207,19 +2207,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9454666834656507</v>
+        <v>0.9454614463104416</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05453331352093595</v>
+        <v>0.05453815967234272</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1743684209333196</v>
+        <v>0.1743737659805682</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9576898242646681</v>
+        <v>0.95768417784437</v>
       </c>
     </row>
     <row r="13">
@@ -2227,19 +2227,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8668700253609699</v>
+        <v>0.8668883878354698</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1331299456045153</v>
+        <v>0.1331104167920875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3131342195039139</v>
+        <v>0.3131498479042571</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9652933021346404</v>
+        <v>0.9653395145074619</v>
       </c>
     </row>
     <row r="14">
@@ -2247,19 +2247,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7362297773998635</v>
+        <v>0.7362192152639769</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2637702257249902</v>
+        <v>0.2637806970309763</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4238350725941739</v>
+        <v>0.4238223233106716</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9708813546310823</v>
+        <v>0.9708497125229646</v>
       </c>
     </row>
     <row r="15">
@@ -2267,19 +2267,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5808107695672143</v>
+        <v>0.5807990405489551</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4191892603515385</v>
+        <v>0.4191782093563632</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4819689331889778</v>
+        <v>0.4819674786891321</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9776488911579724</v>
+        <v>0.9776231977297121</v>
       </c>
     </row>
     <row r="16">
@@ -2287,19 +2287,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4154905655747549</v>
+        <v>0.4154936797443195</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5845093624310944</v>
+        <v>0.5845062827273796</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4831127830167778</v>
+        <v>0.4831013073554108</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9810795270796667</v>
+        <v>0.9810563387922688</v>
       </c>
     </row>
     <row r="17">
@@ -2307,19 +2307,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2548624967861255</v>
+        <v>0.2548585348823895</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7451378698426443</v>
+        <v>0.7451412231465256</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4287498866127726</v>
+        <v>0.428754705951351</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9878382678826222</v>
+        <v>0.9878495109855573</v>
       </c>
     </row>
     <row r="18">
@@ -2327,19 +2327,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1187095330880051</v>
+        <v>0.1186972425082832</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8812910806824168</v>
+        <v>0.8813023052359039</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3185539706103371</v>
+        <v>0.3185629560683679</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9937191865195772</v>
+        <v>0.9937475025512224</v>
       </c>
     </row>
     <row r="19">
@@ -2347,19 +2347,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03333951007432865</v>
+        <v>0.03336297464276551</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9666604933782167</v>
+        <v>0.966636938378134</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1758887008222358</v>
+        <v>0.1758798713185122</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9974177025440816</v>
+        <v>0.9973675169840991</v>
       </c>
     </row>
     <row r="20">
@@ -2367,19 +2367,19 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0007035867102550072</v>
+        <v>0.000682964508388662</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9992963996430539</v>
+        <v>0.9993169229760285</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.002401609023337846</v>
+        <v>-0.00240166444875832</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.998605324825631</v>
+        <v>0.9986463149710463</v>
       </c>
     </row>
   </sheetData>

--- a/HWP_polarimeter_low.xlsx
+++ b/HWP_polarimeter_low.xlsx
@@ -9,9 +9,7 @@
   <sheets>
     <sheet name="measured" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="calculated" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Adjusted" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Adjusted2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rho" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="rho" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1136,7 +1134,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>trace</t>
+          <t>trace_sq</t>
         </is>
       </c>
     </row>
@@ -1145,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9998758226705107</v>
+        <v>0.0004137275743023154</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001241773294893833</v>
+        <v>0.9995862724256976</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.002458982005108625</v>
+        <v>-0.004801908268710075</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01086838317457947</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.000000012871701</v>
+        <v>0.999219003838449</v>
       </c>
     </row>
     <row r="3">
@@ -1165,19 +1163,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9914089869644853</v>
+        <v>0.03152771172241254</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008591013035514683</v>
+        <v>0.9684722882775875</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.09115572084206361</v>
+        <v>-0.1717650855000163</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01441730328515392</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.000000033091428</v>
+        <v>0.9979390589617338</v>
       </c>
     </row>
     <row r="4">
@@ -1185,19 +1183,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9635128151769687</v>
+        <v>0.1213555937855943</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0364871848230312</v>
+        <v>0.8786444062144056</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1857569907420168</v>
+        <v>-0.3217982679948482</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02549959033064942</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.000000037099679</v>
+        <v>0.993851423283888</v>
       </c>
     </row>
     <row r="5">
@@ -1205,19 +1203,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9167631490146053</v>
+        <v>0.2517556778053711</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08323685098539474</v>
+        <v>0.7482443221946291</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2728628377092168</v>
+        <v>-0.4269394263381716</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04306239017792014</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.000000040054264</v>
+        <v>0.9878050345276758</v>
       </c>
     </row>
     <row r="6">
@@ -1225,19 +1223,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8453717300746029</v>
+        <v>0.4241542130824661</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1546282699253971</v>
+        <v>0.5758457869175337</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3548382723638736</v>
+        <v>-0.4855950381605283</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.06934109154010649</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000036889753</v>
+        <v>0.9831102489585297</v>
       </c>
     </row>
     <row r="7">
@@ -1245,19 +1243,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7673404243545414</v>
+        <v>0.5939411868214387</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2326595756454586</v>
+        <v>0.4060588131785615</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4103343240855717</v>
+        <v>-0.4748701494582051</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1007712755034824</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.000000019966856</v>
+        <v>0.9686532108557573</v>
       </c>
     </row>
     <row r="8">
@@ -1265,19 +1263,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6883679712249146</v>
+        <v>0.7437724561686708</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3116320287750854</v>
+        <v>0.2562275438313293</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4425562783126561</v>
+        <v>-0.4160448598527934</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1366069690122128</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.000000032080086</v>
+        <v>0.9650366715928741</v>
       </c>
     </row>
     <row r="9">
@@ -1285,19 +1283,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6106918873110956</v>
+        <v>0.8719058036043645</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3893081126889044</v>
+        <v>0.1280941963956356</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4513539609436978</v>
+        <v>-0.3046591783903079</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1844638978874623</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.000000043199787</v>
+        <v>0.9622622834641312</v>
       </c>
     </row>
     <row r="10">
@@ -1305,19 +1303,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5538946435255053</v>
+        <v>0.9506760167171553</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4461053564744947</v>
+        <v>0.04932398328284496</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4290696049923781</v>
+        <v>-0.1554800214953131</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2509873337049461</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.000000000418749</v>
+        <v>0.9545658182564493</v>
       </c>
     </row>
     <row r="11">
@@ -1325,19 +1323,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5333212687181588</v>
+        <v>0.9778977989412893</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4666787312818412</v>
+        <v>0.02210220105871086</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3521863857235455</v>
+        <v>0.01034570547196575</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3533474818721731</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.000000000366815</v>
+        <v>0.9569866797092832</v>
       </c>
     </row>
     <row r="12">
@@ -1345,19 +1343,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6131586318654983</v>
+        <v>0.9454799155543833</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3868413681345017</v>
+        <v>0.05452008444561657</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1285719650849003</v>
+        <v>0.1743809185570825</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4697492671569531</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.000000000331917</v>
+        <v>0.9577221198383047</v>
       </c>
     </row>
     <row r="13">
@@ -1365,19 +1363,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7509280748169802</v>
+        <v>0.8668752397006639</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2490719251830198</v>
+        <v>0.1331247602993365</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1817103599226939</v>
+        <v>0.313138115467651</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.392449291681726</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.000000000352159</v>
+        <v>0.9653058417281032</v>
       </c>
     </row>
     <row r="14">
@@ -1385,19 +1383,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8307402232480252</v>
+        <v>0.7362453408956966</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1692597767519748</v>
+        <v>0.2637546591043034</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3005964726530465</v>
+        <v>0.4238691189881131</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2241710631861521</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.000000000431234</v>
+        <v>0.970953782253366</v>
       </c>
     </row>
     <row r="15">
@@ -1405,19 +1403,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8764322791304382</v>
+        <v>0.5808104412312748</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1235677208695619</v>
+        <v>0.4191895587687252</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3024124511573849</v>
+        <v>0.4819676315806376</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1297900674716001</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.000000026001273</v>
+        <v>0.977646250606885</v>
       </c>
     </row>
     <row r="16">
@@ -1425,19 +1423,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.914436097662776</v>
+        <v>0.4154868304866694</v>
       </c>
       <c r="C16" t="n">
-        <v>0.085563902337224</v>
+        <v>0.5845131695133304</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2688775974399043</v>
+        <v>0.483140570111586</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.07712052478813931</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.000000033589207</v>
+        <v>0.9811345726178744</v>
       </c>
     </row>
     <row r="17">
@@ -1445,19 +1443,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9471945334913237</v>
+        <v>0.2548656922719094</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05280546650867635</v>
+        <v>0.7451343077280908</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2190851253829279</v>
+        <v>0.4287423992091778</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.04493080272151324</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.000000039963551</v>
+        <v>0.9878217474099447</v>
       </c>
     </row>
     <row r="18">
@@ -1465,19 +1463,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9745094551257072</v>
+        <v>0.118631107837105</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02549054487429275</v>
+        <v>0.8813688921628952</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1555450703428902</v>
+        <v>0.3186183978516886</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02542688791281867</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.000000037081203</v>
+        <v>0.9939198307182617</v>
       </c>
     </row>
     <row r="19">
@@ -1485,19 +1483,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9924020528432357</v>
+        <v>0.03341827857310575</v>
       </c>
       <c r="C19" t="n">
-        <v>0.007597947156764318</v>
+        <v>0.9665817214268945</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08534552861252817</v>
+        <v>0.1758590431381647</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.01601172865952949</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.000000032706102</v>
+        <v>0.9972498116463101</v>
       </c>
     </row>
     <row r="20">
@@ -1505,881 +1503,19 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9997999781471967</v>
+        <v>0.0006653206992950239</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0002000218528032671</v>
+        <v>0.9993346793007052</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.001287150397272001</v>
+        <v>-0.002401749584299758</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.01408309290942341</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.000000016835958</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Jxx</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jyy</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>beta</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>trace</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0004618726657399049</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9995381342511355</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.004801445775495194</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9991228029116703</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0315759714091005</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9684240233729264</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.1717474004983522</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9978364701721175</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.121417889823968</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8785820704600988</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.3217453404712551</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9936888867331871</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>15</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.251741460114978</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7482584437466685</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.4269638638656761</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9878607434732226</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>20</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.4241549422155633</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5758449075404576</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.4855899895252066</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9831000484003465</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>25</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5939256348482375</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4060741882444195</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.4747920702346514</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9684989260036585</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>30</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.7437721743770547</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2562276876743538</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.4160445543303309</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9650358176843653</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>35</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.8718430725792202</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1281568523263641</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.3046078503604101</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.9621064070049569</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>40</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9506213267939327</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04937863873068832</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.1554611713297683</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.9544555085008001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>45</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9778494965890689</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02215048487196899</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.01034466067816938</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.9568943059686518</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>50</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9454368594929669</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05456310445527547</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.1743640845519795</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.957633655619021</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>55</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8668626798317627</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1331372439452539</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.3131274581478746</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.9652740415027411</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>60</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.7362078201682305</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2637920477012068</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.4238019795912741</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.9708044347182189</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>65</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.58080990058667</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.4191899350227959</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.4819649903581523</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.9776408461057811</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>70</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.4154959398797902</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.584503902238563</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.4830881369867478</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.9810299839833514</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>75</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.25485053654043</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7451493665712157</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.428768891175602</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.9878818985563395</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>80</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.1186921997024051</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8813077615318918</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.318567373911987</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.9937615522489089</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>85</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.03335612927895004</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.966643863921934</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.1758824771011767</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.9973822825208924</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>90</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.0006876719185082963</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9993123347381293</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-0.00240164221016018</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.9986371510230498</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Jxx</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jyy</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>beta</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>trace_sq</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0004556516565965182</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9995443284056221</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.004801505208261348</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9991351809708082</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.03159516540727657</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9684046303257157</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.1717403161994444</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9977952549299695</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1214234251945592</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8785761258273408</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.321740429374368</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9936734648477634</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>15</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.2517663689859098</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7482334101198004</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.4269208493141894</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9877623637301522</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>20</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.4241544570131127</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5758445626302324</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.4855903381015043</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9830999166299585</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>25</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.593930851464046</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4060690503698336</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.4748181526206643</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9685504861052662</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>30</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.7437556182555564</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2562106935877668</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.4160448703749413</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9650030075260327</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>35</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.8718649475869994</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1281349482051185</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.304625752488861</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.9621607499412194</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>40</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9506459195392082</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04935237740162945</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.1554699319545612</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.9545051209756513</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>45</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9778767658406288</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02212268496290078</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.01034525608435063</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.9569464310077972</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>50</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9454614463104416</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05453815967234272</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.1743737659805682</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.95768417784437</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>55</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8668883878354698</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1331104167920875</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.3131498479042571</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.9653395145074619</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>60</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.7362192152639769</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2637806970309763</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.4238223233106716</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.9708497125229646</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>65</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5807990405489551</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.4191782093563632</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.4819674786891321</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.9776231977297121</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>70</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.4154936797443195</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5845062827273796</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.4831013073554108</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.9810563387922688</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>75</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.2548585348823895</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7451412231465256</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.428754705951351</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.9878495109855573</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>80</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.1186972425082832</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8813023052359039</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.3185629560683679</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.9937475025512224</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>85</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.03336297464276551</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.966636938378134</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.1758798713185122</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.9973675169840991</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>90</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.000682964508388662</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9993169229760285</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-0.00240166444875832</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.9986463149710463</v>
+        <v>0.9986817807068076</v>
       </c>
     </row>
   </sheetData>

--- a/HWP_polarimeter_low.xlsx
+++ b/HWP_polarimeter_low.xlsx
@@ -1143,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0004137275743023154</v>
+        <v>0.0004137275745117906</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9995862724256976</v>
+        <v>0.9995862724254878</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.004801908268710075</v>
+        <v>-0.004801908268707946</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.999219003838449</v>
+        <v>0.9992190038380295</v>
       </c>
     </row>
     <row r="3">
@@ -1163,19 +1163,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03152771172241254</v>
+        <v>0.03152771172210748</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9684722882775875</v>
+        <v>0.9684722882778926</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1717650855000163</v>
+        <v>-0.1717650855001283</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9979390589617338</v>
+        <v>0.9979390589623824</v>
       </c>
     </row>
     <row r="4">
@@ -1183,19 +1183,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1213555937855943</v>
+        <v>0.1213555937855469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8786444062144056</v>
+        <v>0.8786444062144529</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3217982679948482</v>
+        <v>-0.3217982679948885</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.993851423283888</v>
+        <v>0.9938514232840115</v>
       </c>
     </row>
     <row r="5">
@@ -1203,19 +1203,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2517556778053711</v>
+        <v>0.2517556778053873</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7482443221946291</v>
+        <v>0.7482443221946127</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4269394263381716</v>
+        <v>-0.4269394263381436</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9878050345276758</v>
+        <v>0.9878050345276117</v>
       </c>
     </row>
     <row r="6">
@@ -1223,19 +1223,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4241542130824661</v>
+        <v>0.4241542130824665</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5758457869175337</v>
+        <v>0.5758457869175339</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4855950381605283</v>
+        <v>-0.4855950381605278</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9831102489585297</v>
+        <v>0.9831102489585293</v>
       </c>
     </row>
     <row r="7">
@@ -1243,19 +1243,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5939411868214387</v>
+        <v>0.5939411868214397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4060588131785615</v>
+        <v>0.4060588131785605</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4748701494582051</v>
+        <v>-0.4748701494582099</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9686532108557573</v>
+        <v>0.9686532108557666</v>
       </c>
     </row>
     <row r="8">
@@ -1263,19 +1263,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7437724561686708</v>
+        <v>0.7437724561686727</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2562275438313293</v>
+        <v>0.2562275438313274</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4160448598527934</v>
+        <v>-0.4160448598527967</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9650366715928741</v>
+        <v>0.9650366715928813</v>
       </c>
     </row>
     <row r="9">
@@ -1283,19 +1283,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8719058036043645</v>
+        <v>0.871905803604367</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1280941963956356</v>
+        <v>0.1280941963956331</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3046591783903079</v>
+        <v>-0.30465917839031</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9622622834641312</v>
+        <v>0.9622622834641374</v>
       </c>
     </row>
     <row r="10">
@@ -1303,19 +1303,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9506760167171553</v>
+        <v>0.9506760167171359</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04932398328284496</v>
+        <v>0.04932398328286448</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1554800214953131</v>
+        <v>-0.1554800214953063</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9545658182564493</v>
+        <v>0.9545658182564101</v>
       </c>
     </row>
     <row r="11">
@@ -1323,19 +1323,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9778977989412893</v>
+        <v>0.9778977989412573</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02210220105871086</v>
+        <v>0.02210220105874314</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01034570547196575</v>
+        <v>0.01034570547196505</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9569866797092832</v>
+        <v>0.9569866797092219</v>
       </c>
     </row>
     <row r="12">
@@ -1343,19 +1343,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9454799155543833</v>
+        <v>0.9454799155543964</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05452008444561657</v>
+        <v>0.05452008444560397</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1743809185570825</v>
+        <v>0.1743809185570875</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9577221198383047</v>
+        <v>0.9577221198383314</v>
       </c>
     </row>
     <row r="13">
@@ -1363,19 +1363,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8668752397006639</v>
+        <v>0.8668752397006386</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1331247602993365</v>
+        <v>0.1331247602993614</v>
       </c>
       <c r="D13" t="n">
-        <v>0.313138115467651</v>
+        <v>0.3131381154676294</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9653058417281032</v>
+        <v>0.9653058417280391</v>
       </c>
     </row>
     <row r="14">
@@ -1383,19 +1383,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7362453408956966</v>
+        <v>0.7362453408956917</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2637546591043034</v>
+        <v>0.2637546591043086</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4238691189881131</v>
+        <v>0.423869118988104</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.970953782253366</v>
+        <v>0.9709537822533463</v>
       </c>
     </row>
     <row r="15">
@@ -1403,19 +1403,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5808104412312748</v>
+        <v>0.5808104412312721</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4191895587687252</v>
+        <v>0.4191895587687279</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4819676315806376</v>
+        <v>0.4819676315806214</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.977646250606885</v>
+        <v>0.9776462506068531</v>
       </c>
     </row>
     <row r="16">
@@ -1423,19 +1423,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4154868304866694</v>
+        <v>0.4154868304866704</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5845131695133304</v>
+        <v>0.5845131695133299</v>
       </c>
       <c r="D16" t="n">
-        <v>0.483140570111586</v>
+        <v>0.4831405701115825</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9811345726178744</v>
+        <v>0.9811345726178677</v>
       </c>
     </row>
     <row r="17">
@@ -1443,19 +1443,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2548656922719094</v>
+        <v>0.2548656922718862</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7451343077280908</v>
+        <v>0.7451343077281136</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4287423992091778</v>
+        <v>0.428742399209218</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9878217474099447</v>
+        <v>0.9878217474100359</v>
       </c>
     </row>
     <row r="18">
@@ -1463,19 +1463,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.118631107837105</v>
+        <v>0.1186311078371157</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8813688921628952</v>
+        <v>0.8813688921628842</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3186183978516886</v>
+        <v>0.3186183978516794</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9939198307182617</v>
+        <v>0.9939198307182333</v>
       </c>
     </row>
     <row r="19">
@@ -1483,19 +1483,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03341827857310575</v>
+        <v>0.03341827857310096</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9665817214268945</v>
+        <v>0.9665817214268991</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1758590431381647</v>
+        <v>0.1758590431381666</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9972498116463101</v>
+        <v>0.9972498116463201</v>
       </c>
     </row>
     <row r="20">
@@ -1503,19 +1503,19 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0006653206992950239</v>
+        <v>0.0006653206992668717</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9993346793007052</v>
+        <v>0.9993346793007334</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.002401749584299758</v>
+        <v>-0.002401749584299904</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9986817807068076</v>
+        <v>0.9986817807068639</v>
       </c>
     </row>
   </sheetData>

--- a/HWP_polarimeter_low.xlsx
+++ b/HWP_polarimeter_low.xlsx
@@ -4,16 +4,40 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="false" showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="true"/>
   </bookViews>
   <sheets>
     <sheet name="measured" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="calculated" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="rho" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="rho_mat" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="true"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="6">
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>Jxx</t>
+  </si>
+  <si>
+    <t>Jyy</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>trace_sq</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28,7 +52,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -39,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -54,20 +78,64 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="false" pivotButton="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="false" pivotButton="false" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="false"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -355,9 +423,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E20"/>
@@ -719,14 +787,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E20"/>
@@ -1088,14 +1156,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F20"/>
@@ -1143,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0004137275743023154</v>
+        <v>0.0004137275745117906</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9995862724256976</v>
+        <v>0.9995862724254878</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.004801908268710075</v>
+        <v>-0.004801908268707946</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.999219003838449</v>
+        <v>0.9992190038380295</v>
       </c>
     </row>
     <row r="3">
@@ -1163,19 +1231,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03152771172241254</v>
+        <v>0.03152771172210748</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9684722882775875</v>
+        <v>0.9684722882778926</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1717650855000163</v>
+        <v>-0.1717650855001283</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9979390589617338</v>
+        <v>0.9979390589623824</v>
       </c>
     </row>
     <row r="4">
@@ -1183,19 +1251,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1213555937855943</v>
+        <v>0.1213555937855469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8786444062144056</v>
+        <v>0.8786444062144529</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3217982679948482</v>
+        <v>-0.3217982679948885</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.993851423283888</v>
+        <v>0.9938514232840115</v>
       </c>
     </row>
     <row r="5">
@@ -1203,19 +1271,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2517556778053711</v>
+        <v>0.2517556778053873</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7482443221946291</v>
+        <v>0.7482443221946127</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4269394263381716</v>
+        <v>-0.4269394263381436</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9878050345276758</v>
+        <v>0.9878050345276117</v>
       </c>
     </row>
     <row r="6">
@@ -1223,19 +1291,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4241542130824661</v>
+        <v>0.4241542130824665</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5758457869175337</v>
+        <v>0.5758457869175339</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4855950381605283</v>
+        <v>-0.4855950381605278</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9831102489585297</v>
+        <v>0.9831102489585293</v>
       </c>
     </row>
     <row r="7">
@@ -1243,19 +1311,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5939411868214387</v>
+        <v>0.5939411868214397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4060588131785615</v>
+        <v>0.4060588131785605</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4748701494582051</v>
+        <v>-0.4748701494582099</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9686532108557573</v>
+        <v>0.9686532108557666</v>
       </c>
     </row>
     <row r="8">
@@ -1263,19 +1331,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7437724561686708</v>
+        <v>0.7437724561686727</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2562275438313293</v>
+        <v>0.2562275438313274</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4160448598527934</v>
+        <v>-0.4160448598527967</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9650366715928741</v>
+        <v>0.9650366715928813</v>
       </c>
     </row>
     <row r="9">
@@ -1283,19 +1351,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8719058036043645</v>
+        <v>0.871905803604367</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1280941963956356</v>
+        <v>0.1280941963956331</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3046591783903079</v>
+        <v>-0.30465917839031</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9622622834641312</v>
+        <v>0.9622622834641374</v>
       </c>
     </row>
     <row r="10">
@@ -1303,19 +1371,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9506760167171553</v>
+        <v>0.9506760167171359</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04932398328284496</v>
+        <v>0.04932398328286448</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1554800214953131</v>
+        <v>-0.1554800214953063</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9545658182564493</v>
+        <v>0.9545658182564101</v>
       </c>
     </row>
     <row r="11">
@@ -1323,19 +1391,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9778977989412893</v>
+        <v>0.9778977989412573</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02210220105871086</v>
+        <v>0.02210220105874314</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01034570547196575</v>
+        <v>0.01034570547196505</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9569866797092832</v>
+        <v>0.9569866797092219</v>
       </c>
     </row>
     <row r="12">
@@ -1343,19 +1411,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9454799155543833</v>
+        <v>0.9454799155543964</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05452008444561657</v>
+        <v>0.05452008444560397</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1743809185570825</v>
+        <v>0.1743809185570875</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9577221198383047</v>
+        <v>0.9577221198383314</v>
       </c>
     </row>
     <row r="13">
@@ -1363,19 +1431,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8668752397006639</v>
+        <v>0.8668752397006386</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1331247602993365</v>
+        <v>0.1331247602993614</v>
       </c>
       <c r="D13" t="n">
-        <v>0.313138115467651</v>
+        <v>0.3131381154676294</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9653058417281032</v>
+        <v>0.9653058417280391</v>
       </c>
     </row>
     <row r="14">
@@ -1383,19 +1451,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7362453408956966</v>
+        <v>0.7362453408956917</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2637546591043034</v>
+        <v>0.2637546591043086</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4238691189881131</v>
+        <v>0.423869118988104</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.970953782253366</v>
+        <v>0.9709537822533463</v>
       </c>
     </row>
     <row r="15">
@@ -1403,19 +1471,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5808104412312748</v>
+        <v>0.5808104412312721</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4191895587687252</v>
+        <v>0.4191895587687279</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4819676315806376</v>
+        <v>0.4819676315806214</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.977646250606885</v>
+        <v>0.9776462506068531</v>
       </c>
     </row>
     <row r="16">
@@ -1423,19 +1491,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4154868304866694</v>
+        <v>0.4154868304866704</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5845131695133304</v>
+        <v>0.5845131695133299</v>
       </c>
       <c r="D16" t="n">
-        <v>0.483140570111586</v>
+        <v>0.4831405701115825</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9811345726178744</v>
+        <v>0.9811345726178677</v>
       </c>
     </row>
     <row r="17">
@@ -1443,19 +1511,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2548656922719094</v>
+        <v>0.2548656922718862</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7451343077280908</v>
+        <v>0.7451343077281136</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4287423992091778</v>
+        <v>0.428742399209218</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9878217474099447</v>
+        <v>0.9878217474100359</v>
       </c>
     </row>
     <row r="18">
@@ -1463,19 +1531,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.118631107837105</v>
+        <v>0.1186311078371157</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8813688921628952</v>
+        <v>0.8813688921628842</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3186183978516886</v>
+        <v>0.3186183978516794</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9939198307182617</v>
+        <v>0.9939198307182333</v>
       </c>
     </row>
     <row r="19">
@@ -1483,19 +1551,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03341827857310575</v>
+        <v>0.03341827857310096</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9665817214268945</v>
+        <v>0.9665817214268991</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1758590431381647</v>
+        <v>0.1758590431381666</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9972498116463101</v>
+        <v>0.9972498116463201</v>
       </c>
     </row>
     <row r="20">
@@ -1503,22 +1571,439 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0006653206992950239</v>
+        <v>0.0006653206992668717</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9993346793007052</v>
+        <v>0.9993346793007334</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.002401749584299758</v>
+        <v>-0.002401749584299904</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9986817807068076</v>
+        <v>0.9986817807068639</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="15.42578125" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0004905764722519738</v>
+      </c>
+      <c r="C2">
+        <v>0.9995094248415699</v>
+      </c>
+      <c r="D2">
+        <v>-0.0048014454539057356</v>
+      </c>
+      <c r="E2">
+        <v>-0.021616655605192308</v>
+      </c>
+      <c r="F2">
+        <v>1.0000000026276439</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.031575967617976528</v>
+      </c>
+      <c r="C3">
+        <v>0.96842403235117724</v>
+      </c>
+      <c r="D3">
+        <v>-0.17174739285398583</v>
+      </c>
+      <c r="E3">
+        <v>-0.020518314941319091</v>
+      </c>
+      <c r="F3">
+        <v>0.99999999993830757</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.12141788148886885</v>
+      </c>
+      <c r="C4">
+        <v>0.87858211850476442</v>
+      </c>
+      <c r="D4">
+        <v>-0.32174533200965383</v>
+      </c>
+      <c r="E4">
+        <v>-0.017979649859317413</v>
+      </c>
+      <c r="F4">
+        <v>0.99999999998726663</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.25174146844370349</v>
+      </c>
+      <c r="C5">
+        <v>0.74825853154790101</v>
+      </c>
+      <c r="D5">
+        <v>-0.4269638632606651</v>
+      </c>
+      <c r="E5">
+        <v>-0.01437905209677318</v>
+      </c>
+      <c r="F5">
+        <v>0.99999999998320899</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.42415499999400863</v>
+      </c>
+      <c r="C6">
+        <v>0.57584499999934002</v>
+      </c>
+      <c r="D6">
+        <v>-0.48558999920313894</v>
+      </c>
+      <c r="E6">
+        <v>-0.0095749999842247961</v>
+      </c>
+      <c r="F6">
+        <v>0.99999999998669731</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.59392574248033447</v>
+      </c>
+      <c r="C7">
+        <v>0.40607425751745052</v>
+      </c>
+      <c r="D7">
+        <v>-0.4747920786919102</v>
+      </c>
+      <c r="E7">
+        <v>-0.0045841584108564076</v>
+      </c>
+      <c r="F7">
+        <v>0.99999999999556999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0.74377227696626602</v>
+      </c>
+      <c r="C8">
+        <v>0.25622772303123031</v>
+      </c>
+      <c r="D8">
+        <v>-0.41604455379806116</v>
+      </c>
+      <c r="E8">
+        <v>0.00012330198000310051</v>
+      </c>
+      <c r="F8">
+        <v>0.99999999999499267</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0.87184313684308989</v>
+      </c>
+      <c r="C9">
+        <v>0.12815686315587166</v>
+      </c>
+      <c r="D9">
+        <v>-0.30460784293524967</v>
+      </c>
+      <c r="E9">
+        <v>0.0043921568598280347</v>
+      </c>
+      <c r="F9">
+        <v>0.99999999999792299</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.95062135892679489</v>
+      </c>
+      <c r="C10">
+        <v>0.049378641072218982</v>
+      </c>
+      <c r="D10">
+        <v>-0.15546116495261436</v>
+      </c>
+      <c r="E10">
+        <v>0.0076990291214561321</v>
+      </c>
+      <c r="F10">
+        <v>0.9999999999980278</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>0.97784951371283801</v>
+      </c>
+      <c r="C11">
+        <v>0.022150486286015035</v>
+      </c>
+      <c r="D11">
+        <v>0.010344660182393871</v>
+      </c>
+      <c r="E11">
+        <v>0.0095728155230691524</v>
+      </c>
+      <c r="F11">
+        <v>0.99999999999770606</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.94543689275412146</v>
+      </c>
+      <c r="C12">
+        <v>0.0545631072448362</v>
+      </c>
+      <c r="D12">
+        <v>0.17436407749177166</v>
+      </c>
+      <c r="E12">
+        <v>0.0098543689219628312</v>
+      </c>
+      <c r="F12">
+        <v>0.99999999999791522</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0.86686274455696966</v>
+      </c>
+      <c r="C13">
+        <v>0.1331372554419028</v>
+      </c>
+      <c r="D13">
+        <v>0.31312745067142012</v>
+      </c>
+      <c r="E13">
+        <v>0.008490196070045003</v>
+      </c>
+      <c r="F13">
+        <v>0.99999999999774491</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.73620792057710494</v>
+      </c>
+      <c r="C14">
+        <v>0.2637920794195775</v>
+      </c>
+      <c r="D14">
+        <v>0.42380197943552739</v>
+      </c>
+      <c r="E14">
+        <v>0.0052574257331093402</v>
+      </c>
+      <c r="F14">
+        <v>0.99999999999336486</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>0.58080999993852922</v>
+      </c>
+      <c r="C15">
+        <v>0.41919000005744</v>
+      </c>
+      <c r="D15">
+        <v>0.48196499927009867</v>
+      </c>
+      <c r="E15">
+        <v>0.00066999999898417718</v>
+      </c>
+      <c r="F15">
+        <v>0.99999999999193845</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>0.41549600067218162</v>
+      </c>
+      <c r="C16">
+        <v>0.58450399932244634</v>
+      </c>
+      <c r="D16">
+        <v>0.48308814586511656</v>
+      </c>
+      <c r="E16">
+        <v>-0.0048936854297514628</v>
+      </c>
+      <c r="F16">
+        <v>0.99999999998925593</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>0.25485054515288086</v>
+      </c>
+      <c r="C17">
+        <v>0.74514945483870543</v>
+      </c>
+      <c r="D17">
+        <v>0.42876889080736685</v>
+      </c>
+      <c r="E17">
+        <v>-0.011154475493790329</v>
+      </c>
+      <c r="F17">
+        <v>0.99999999998317257</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>0.11869219150761728</v>
+      </c>
+      <c r="C18">
+        <v>0.88130780848558765</v>
+      </c>
+      <c r="D18">
+        <v>0.31856736537211966</v>
+      </c>
+      <c r="E18">
+        <v>-0.017552386031771859</v>
+      </c>
+      <c r="F18">
+        <v>0.99999999998640998</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>0.033356126408844722</v>
+      </c>
+      <c r="C19">
+        <v>0.96664387356238679</v>
+      </c>
+      <c r="D19">
+        <v>0.17588246922993817</v>
+      </c>
+      <c r="E19">
+        <v>-0.02309389867473071</v>
+      </c>
+      <c r="F19">
+        <v>0.99999999994246291</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>0.00078961838591016078</v>
+      </c>
+      <c r="C20">
+        <v>0.99921038188358846</v>
+      </c>
+      <c r="D20">
+        <v>-0.002401642062821886</v>
+      </c>
+      <c r="E20">
+        <v>-0.027986163042862791</v>
+      </c>
+      <c r="F20">
+        <v>1.0000000005389973</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
--- a/HWP_polarimeter_low.xlsx
+++ b/HWP_polarimeter_low.xlsx
@@ -11,6 +11,7 @@
     <sheet name="calculated" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="rho" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="rho_mat" sheetId="4" r:id="rId6"/>
+    <sheet name="rho_min" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="true"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="6">
   <si>
     <t>theta</t>
   </si>
@@ -63,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -100,11 +101,37 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="false" pivotButton="false"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="false" pivotButton="false" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
@@ -131,6 +158,32 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="false"/>
@@ -1599,28 +1652,445 @@
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.42578125" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.00049051873917709877</v>
+      </c>
+      <c r="C2">
+        <v>0.99950948126082295</v>
+      </c>
+      <c r="D2">
+        <v>-0.004801170169706933</v>
+      </c>
+      <c r="E2">
+        <v>-0.021615416229156283</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.031575968302766738</v>
+      </c>
+      <c r="C3">
+        <v>0.96842403169723323</v>
+      </c>
+      <c r="D3">
+        <v>-0.17174739225356858</v>
+      </c>
+      <c r="E3">
+        <v>-0.020518314870217977</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.1214178812511266</v>
+      </c>
+      <c r="C4">
+        <v>0.87858211874887349</v>
+      </c>
+      <c r="D4">
+        <v>-0.32174533178821974</v>
+      </c>
+      <c r="E4">
+        <v>-0.017979649847056491</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.25174146864426528</v>
+      </c>
+      <c r="C5">
+        <v>0.74825853135573472</v>
+      </c>
+      <c r="D5">
+        <v>-0.42696386375948903</v>
+      </c>
+      <c r="E5">
+        <v>-0.014379052113708735</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.42415500002386997</v>
+      </c>
+      <c r="C6">
+        <v>0.57584499997613003</v>
+      </c>
+      <c r="D6">
+        <v>-0.48558999984717499</v>
+      </c>
+      <c r="E6">
+        <v>-0.009574999996986553</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.59392574257388187</v>
+      </c>
+      <c r="C7">
+        <v>0.40607425742611819</v>
+      </c>
+      <c r="D7">
+        <v>-0.47479207920602201</v>
+      </c>
+      <c r="E7">
+        <v>-0.0045841584158232453</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0.7437722772277362</v>
+      </c>
+      <c r="C8">
+        <v>0.2562277227722638</v>
+      </c>
+      <c r="D8">
+        <v>-0.41604455445546862</v>
+      </c>
+      <c r="E8">
+        <v>0.0001233019801980267</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0.87184313725596563</v>
+      </c>
+      <c r="C9">
+        <v>0.12815686274403434</v>
+      </c>
+      <c r="D9">
+        <v>-0.30460784313812628</v>
+      </c>
+      <c r="E9">
+        <v>0.0043921568627576634</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.95062135922936031</v>
+      </c>
+      <c r="C10">
+        <v>0.049378640770639658</v>
+      </c>
+      <c r="D10">
+        <v>-0.15546116505063443</v>
+      </c>
+      <c r="E10">
+        <v>0.0076990291263171161</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>0.97784951456722169</v>
+      </c>
+      <c r="C11">
+        <v>0.022150485432778304</v>
+      </c>
+      <c r="D11">
+        <v>0.010344660194263878</v>
+      </c>
+      <c r="E11">
+        <v>0.0095728155340630127</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.94543689320721991</v>
+      </c>
+      <c r="C12">
+        <v>0.054563106792780182</v>
+      </c>
+      <c r="D12">
+        <v>0.1743640776712089</v>
+      </c>
+      <c r="E12">
+        <v>0.0098543689321126341</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0.86686274509801464</v>
+      </c>
+      <c r="C13">
+        <v>0.13313725490198533</v>
+      </c>
+      <c r="D13">
+        <v>0.31312745098037126</v>
+      </c>
+      <c r="E13">
+        <v>0.0084901960784308055</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.73620792078912312</v>
+      </c>
+      <c r="C14">
+        <v>0.26379207921087683</v>
+      </c>
+      <c r="D14">
+        <v>0.4238019801927167</v>
+      </c>
+      <c r="E14">
+        <v>0.005257425742508471</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>0.58080999999663985</v>
+      </c>
+      <c r="C15">
+        <v>0.41919000000336021</v>
+      </c>
+      <c r="D15">
+        <v>0.48196499997995929</v>
+      </c>
+      <c r="E15">
+        <v>0.00066999999997214058</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>0.41549600066635051</v>
+      </c>
+      <c r="C16">
+        <v>0.58450399933364949</v>
+      </c>
+      <c r="D16">
+        <v>0.48308814649684501</v>
+      </c>
+      <c r="E16">
+        <v>-0.0048936854361718895</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>0.25485054535405488</v>
+      </c>
+      <c r="C17">
+        <v>0.74514945464594518</v>
+      </c>
+      <c r="D17">
+        <v>0.42876889132267132</v>
+      </c>
+      <c r="E17">
+        <v>-0.011154475507303922</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>0.11869219124590384</v>
+      </c>
+      <c r="C18">
+        <v>0.88130780875409609</v>
+      </c>
+      <c r="D18">
+        <v>0.31856736511607009</v>
+      </c>
+      <c r="E18">
+        <v>-0.017552386017781006</v>
+      </c>
+      <c r="F18">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>0.033356126773002912</v>
+      </c>
+      <c r="C19">
+        <v>0.96664387322699719</v>
+      </c>
+      <c r="D19">
+        <v>0.17588246873671146</v>
+      </c>
+      <c r="E19">
+        <v>-0.023093898610634423</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>0.00078929553688579436</v>
+      </c>
+      <c r="C20">
+        <v>0.99921070446311422</v>
+      </c>
+      <c r="D20">
+        <v>-0.0024011532777998622</v>
+      </c>
+      <c r="E20">
+        <v>-0.027980467263212294</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.42578125" customWidth="true"/>
-    <col min="5" max="5" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="42" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1629,19 +2099,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0004905764722519738</v>
+        <v>0.0005138557786760695</v>
       </c>
       <c r="C2">
-        <v>0.9995094248415699</v>
+        <v>0.99943820242279979</v>
       </c>
       <c r="D2">
-        <v>-0.0048014454539057356</v>
+        <v>-0.004800715456687807</v>
       </c>
       <c r="E2">
-        <v>-0.021616655605192308</v>
+        <v>-0.021613369059231904</v>
       </c>
       <c r="F2">
-        <v>1.0000000026276439</v>
+        <v>0.99990411870136764</v>
       </c>
     </row>
     <row r="3">
@@ -1649,19 +2119,19 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.031575967617976528</v>
+        <v>0.031481712762271401</v>
       </c>
       <c r="C3">
-        <v>0.96842403235117724</v>
+        <v>0.96832422223076231</v>
       </c>
       <c r="D3">
-        <v>-0.17174739285398583</v>
+        <v>-0.1717463740817429</v>
       </c>
       <c r="E3">
-        <v>-0.020518314941319091</v>
+        <v>-0.020518193231281647</v>
       </c>
       <c r="F3">
-        <v>0.99999999993830757</v>
+        <v>0.99961190764729435</v>
       </c>
     </row>
     <row r="4">
@@ -1669,19 +2139,19 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.12141788148886885</v>
+        <v>0.12131790837351818</v>
       </c>
       <c r="C4">
-        <v>0.87858211850476442</v>
+        <v>0.87848212258262959</v>
       </c>
       <c r="D4">
-        <v>-0.32174533200965383</v>
+        <v>-0.32174532189207122</v>
       </c>
       <c r="E4">
-        <v>-0.017979649859317413</v>
+        <v>-0.017979649294043699</v>
       </c>
       <c r="F4">
-        <v>0.99999999998726663</v>
+        <v>0.99960010189991411</v>
       </c>
     </row>
     <row r="5">
@@ -1689,19 +2159,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.25174146844370349</v>
+        <v>0.25164204538469143</v>
       </c>
       <c r="C5">
-        <v>0.74825853154790101</v>
+        <v>0.74815872816408813</v>
       </c>
       <c r="D5">
-        <v>-0.4269638632606651</v>
+        <v>-0.4269635370491342</v>
       </c>
       <c r="E5">
-        <v>-0.01437905209677318</v>
+        <v>-0.014379041110938672</v>
       </c>
       <c r="F5">
-        <v>0.99999999998320899</v>
+        <v>0.99960158678873789</v>
       </c>
     </row>
     <row r="6">
@@ -1709,19 +2179,19 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.42415499999400863</v>
+        <v>0.42405520205525887</v>
       </c>
       <c r="C6">
-        <v>0.57584499999934002</v>
+        <v>0.57574514935559118</v>
       </c>
       <c r="D6">
-        <v>-0.48558999920313894</v>
+        <v>-0.48558983129783351</v>
       </c>
       <c r="E6">
-        <v>-0.0095749999842247961</v>
+        <v>-0.0095749966734832992</v>
       </c>
       <c r="F6">
-        <v>0.99999999998669731</v>
+        <v>0.99960074268125909</v>
       </c>
     </row>
     <row r="7">
@@ -1729,19 +2199,19 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>0.59392574248033447</v>
+        <v>0.59382577336359632</v>
       </c>
       <c r="C7">
-        <v>0.40607425751745052</v>
+        <v>0.40597430212207108</v>
       </c>
       <c r="D7">
-        <v>-0.4747920786919102</v>
+        <v>-0.47479204405819314</v>
       </c>
       <c r="E7">
-        <v>-0.0045841584108564076</v>
+        <v>-0.0045841580764679297</v>
       </c>
       <c r="F7">
-        <v>0.99999999999556999</v>
+        <v>0.99960019094114627</v>
       </c>
     </row>
     <row r="8">
@@ -1749,19 +2219,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.74377227696626602</v>
+        <v>0.74367229501326226</v>
       </c>
       <c r="C8">
-        <v>0.25622772303123031</v>
+        <v>0.25612777304812584</v>
       </c>
       <c r="D8">
-        <v>-0.41604455379806116</v>
+        <v>-0.41604452672994641</v>
       </c>
       <c r="E8">
-        <v>0.00012330198000310051</v>
+        <v>0.00012330197198108994</v>
       </c>
       <c r="F8">
-        <v>0.99999999999499267</v>
+        <v>0.99960017609555629</v>
       </c>
     </row>
     <row r="9">
@@ -1769,19 +2239,19 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>0.87184313684308989</v>
+        <v>0.8717431452739588</v>
       </c>
       <c r="C9">
-        <v>0.12815686315587166</v>
+        <v>0.12805691363743821</v>
       </c>
       <c r="D9">
-        <v>-0.30460784293524967</v>
+        <v>-0.30460782557670713</v>
       </c>
       <c r="E9">
-        <v>0.0043921568598280347</v>
+        <v>0.0043921566095386161</v>
       </c>
       <c r="F9">
-        <v>0.99999999999792299</v>
+        <v>0.99960015779923295</v>
       </c>
     </row>
     <row r="10">
@@ -1789,19 +2259,19 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>0.95062135892679489</v>
+        <v>0.95052136113399499</v>
       </c>
       <c r="C10">
-        <v>0.049378641072218982</v>
+        <v>0.049278670562015639</v>
       </c>
       <c r="D10">
-        <v>-0.15546116495261436</v>
+        <v>-0.15546116024027071</v>
       </c>
       <c r="E10">
-        <v>0.0076990291214561321</v>
+        <v>0.0076990288880895794</v>
       </c>
       <c r="F10">
-        <v>0.9999999999980278</v>
+        <v>0.9996001033793438</v>
       </c>
     </row>
     <row r="11">
@@ -1809,19 +2279,19 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.97784951371283801</v>
+        <v>0.97774951582101022</v>
       </c>
       <c r="C11">
-        <v>0.022150486286015035</v>
+        <v>0.022050522109904533</v>
       </c>
       <c r="D11">
-        <v>0.010344660182393871</v>
+        <v>0.010344659810835224</v>
       </c>
       <c r="E11">
-        <v>0.0095728155230691524</v>
+        <v>0.0095728151792430684</v>
       </c>
       <c r="F11">
-        <v>0.99999999999770606</v>
+        <v>0.99960011584665864</v>
       </c>
     </row>
     <row r="12">
@@ -1829,19 +2299,19 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.94543689275412146</v>
+        <v>0.94533689578372249</v>
       </c>
       <c r="C12">
-        <v>0.0545631072448362</v>
+        <v>0.05446314401662547</v>
       </c>
       <c r="D12">
-        <v>0.17436407749177166</v>
+        <v>0.17436407088994307</v>
       </c>
       <c r="E12">
-        <v>0.0098543689219628312</v>
+        <v>0.009854368548862279</v>
       </c>
       <c r="F12">
-        <v>0.99999999999791522</v>
+        <v>0.99960011958477735</v>
       </c>
     </row>
     <row r="13">
@@ -1849,19 +2319,19 @@
         <v>55</v>
       </c>
       <c r="B13">
-        <v>0.86686274455696966</v>
+        <v>0.86676275480297382</v>
       </c>
       <c r="C13">
-        <v>0.1331372554419028</v>
+        <v>0.13303731413738745</v>
       </c>
       <c r="D13">
-        <v>0.31312745067142012</v>
+        <v>0.31312742984257302</v>
       </c>
       <c r="E13">
-        <v>0.008490196070045003</v>
+        <v>0.0084901955052966039</v>
       </c>
       <c r="F13">
-        <v>0.99999999999774491</v>
+        <v>0.99960017785315103</v>
       </c>
     </row>
     <row r="14">
@@ -1869,19 +2339,19 @@
         <v>60</v>
       </c>
       <c r="B14">
-        <v>0.73620792057710494</v>
+        <v>0.73610794088782927</v>
       </c>
       <c r="C14">
-        <v>0.2637920794195775</v>
+        <v>0.26369213408130815</v>
       </c>
       <c r="D14">
-        <v>0.42380197943552739</v>
+        <v>0.42380194899916929</v>
       </c>
       <c r="E14">
-        <v>0.0052574257331093402</v>
+        <v>0.0052574253555405775</v>
       </c>
       <c r="F14">
-        <v>0.99999999999336486</v>
+        <v>0.99960018990829269</v>
       </c>
     </row>
     <row r="15">
@@ -1889,19 +2359,19 @@
         <v>65</v>
       </c>
       <c r="B15">
-        <v>0.58080999993852922</v>
+        <v>0.58071001727577798</v>
       </c>
       <c r="C15">
-        <v>0.41919000005744</v>
+        <v>0.41909002383614918</v>
       </c>
       <c r="D15">
-        <v>0.48196499927009867</v>
+        <v>0.48196498043639796</v>
       </c>
       <c r="E15">
-        <v>0.00066999999898417718</v>
+        <v>0.00066999997280380681</v>
       </c>
       <c r="F15">
-        <v>0.99999999999193845</v>
+        <v>0.99960012220741135</v>
       </c>
     </row>
     <row r="16">
@@ -1909,19 +2379,19 @@
         <v>70</v>
       </c>
       <c r="B16">
-        <v>0.41549600067218162</v>
+        <v>0.41539600884271727</v>
       </c>
       <c r="C16">
-        <v>0.58450399932244634</v>
+        <v>0.58440400520608338</v>
       </c>
       <c r="D16">
-        <v>0.48308814586511656</v>
+        <v>0.48308813991134208</v>
       </c>
       <c r="E16">
-        <v>-0.0048936854297514628</v>
+        <v>-0.0048936853694607103</v>
       </c>
       <c r="F16">
-        <v>0.99999999998925593</v>
+        <v>0.99960006809198187</v>
       </c>
     </row>
     <row r="17">
@@ -1929,19 +2399,19 @@
         <v>75</v>
       </c>
       <c r="B17">
-        <v>0.25485054515288086</v>
+        <v>0.25475109191553946</v>
       </c>
       <c r="C17">
-        <v>0.74514945483870543</v>
+        <v>0.74504964419137509</v>
       </c>
       <c r="D17">
-        <v>0.42876889080736685</v>
+        <v>0.42876857911031468</v>
       </c>
       <c r="E17">
-        <v>-0.011154475493790329</v>
+        <v>-0.011154467385061021</v>
       </c>
       <c r="F17">
-        <v>0.99999999998317257</v>
+        <v>0.99960151191992819</v>
       </c>
     </row>
     <row r="18">
@@ -1949,19 +2419,19 @@
         <v>80</v>
       </c>
       <c r="B18">
-        <v>0.11869219150761728</v>
+        <v>0.11859221872924455</v>
       </c>
       <c r="C18">
-        <v>0.88130780848558765</v>
+        <v>0.88120781254079139</v>
       </c>
       <c r="D18">
-        <v>0.31856736537211966</v>
+        <v>0.31856735521727225</v>
       </c>
       <c r="E18">
-        <v>-0.017552386031771859</v>
+        <v>-0.017552385472378237</v>
       </c>
       <c r="F18">
-        <v>0.99999999998640998</v>
+        <v>0.99960010252756482</v>
       </c>
     </row>
     <row r="19">
@@ -1969,19 +2439,19 @@
         <v>85</v>
       </c>
       <c r="B19">
-        <v>0.033356126408844722</v>
+        <v>0.033260542536368724</v>
       </c>
       <c r="C19">
-        <v>0.96664387356238679</v>
+        <v>0.96654402819587226</v>
       </c>
       <c r="D19">
-        <v>0.17588246922993817</v>
+        <v>0.17588166576993444</v>
       </c>
       <c r="E19">
-        <v>-0.02309389867473071</v>
+        <v>-0.02309379317867483</v>
       </c>
       <c r="F19">
-        <v>0.99999999994246291</v>
+        <v>0.99960917965708063</v>
       </c>
     </row>
     <row r="20">
@@ -1989,19 +2459,19 @@
         <v>90</v>
       </c>
       <c r="B20">
-        <v>0.00078961838591016078</v>
+        <v>0.00078863485453073098</v>
       </c>
       <c r="C20">
-        <v>0.99921038188358846</v>
+        <v>0.99927148499621676</v>
       </c>
       <c r="D20">
-        <v>-0.002401642062821886</v>
+        <v>-0.0024013010408336492</v>
       </c>
       <c r="E20">
-        <v>-0.027986163042862791</v>
+        <v>-0.0279821891352676</v>
       </c>
       <c r="F20">
-        <v>1.0000000005389973</v>
+        <v>1.0001202433158916</v>
       </c>
     </row>
   </sheetData>

--- a/HWP_polarimeter_low.xlsx
+++ b/HWP_polarimeter_low.xlsx
@@ -12,6 +12,7 @@
     <sheet name="rho" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="rho_mat" sheetId="4" r:id="rId6"/>
     <sheet name="rho_min" sheetId="5" r:id="rId8"/>
+    <sheet name="rho_max" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="true"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="6">
   <si>
     <t>theta</t>
   </si>
@@ -64,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -127,11 +128,41 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="false" pivotButton="false"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="false" pivotButton="false" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
@@ -184,6 +215,36 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="false"/>
@@ -1658,22 +1719,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="74" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1682,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.00049051873917709877</v>
+        <v>0.00049051873917709834</v>
       </c>
       <c r="C2">
         <v>0.99950948126082295</v>
@@ -2042,7 +2103,7 @@
         <v>90</v>
       </c>
       <c r="B20">
-        <v>0.00078929553688579436</v>
+        <v>0.00078929553688579653</v>
       </c>
       <c r="C20">
         <v>0.99921070446311422</v>
@@ -2067,30 +2128,30 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="15.42578125" customWidth="true"/>
-    <col min="5" max="5" width="15.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.5703125" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="76" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2099,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0005138557786760695</v>
+        <v>0.10036376636895486</v>
       </c>
       <c r="C2">
-        <v>0.99943820242279979</v>
+        <v>0.89963623363104506</v>
       </c>
       <c r="D2">
-        <v>-0.004800715456687807</v>
+        <v>-0.0038412114997304313</v>
       </c>
       <c r="E2">
-        <v>-0.021613369059231904</v>
+        <v>-0.017293572703331837</v>
       </c>
       <c r="F2">
-        <v>0.99990411870136764</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="3">
@@ -2119,19 +2180,19 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.031481712762271401</v>
+        <v>0.12538482442146476</v>
       </c>
       <c r="C3">
-        <v>0.96832422223076231</v>
+        <v>0.8746151755785353</v>
       </c>
       <c r="D3">
-        <v>-0.1717463740817429</v>
+        <v>-0.13735243102516975</v>
       </c>
       <c r="E3">
-        <v>-0.020518193231281647</v>
+        <v>-0.016409218160375137</v>
       </c>
       <c r="F3">
-        <v>0.99961190764729435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2139,19 +2200,19 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.12131790837351818</v>
+        <v>0.19756687843983958</v>
       </c>
       <c r="C4">
-        <v>0.87848212258262959</v>
+        <v>0.80243312156016045</v>
       </c>
       <c r="D4">
-        <v>-0.32174532189207122</v>
+        <v>-0.25702863453164704</v>
       </c>
       <c r="E4">
-        <v>-0.017979649294043699</v>
+        <v>-0.014363176068045965</v>
       </c>
       <c r="F4">
-        <v>0.99960010189991411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2159,19 +2220,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.25164204538469143</v>
+        <v>0.30198581433181659</v>
       </c>
       <c r="C5">
-        <v>0.74815872816408813</v>
+        <v>0.69801418566818352</v>
       </c>
       <c r="D5">
-        <v>-0.4269635370491342</v>
+        <v>-0.34055184863286858</v>
       </c>
       <c r="E5">
-        <v>-0.014379041110938672</v>
+        <v>-0.011468916211771651</v>
       </c>
       <c r="F5">
-        <v>0.99960158678873789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2179,19 +2240,19 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.42405520205525887</v>
+        <v>0.43958411157855803</v>
       </c>
       <c r="C6">
-        <v>0.57574514935559118</v>
+        <v>0.56041588842144208</v>
       </c>
       <c r="D6">
-        <v>-0.48558983129783351</v>
+        <v>-0.38680666172546657</v>
       </c>
       <c r="E6">
-        <v>-0.0095749966734832992</v>
+        <v>-0.0076271623921854688</v>
       </c>
       <c r="F6">
-        <v>0.99960074268125909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2199,19 +2260,19 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>0.59382577336359632</v>
+        <v>0.57452020168969409</v>
       </c>
       <c r="C7">
-        <v>0.40597430212207108</v>
+        <v>0.42547979831030591</v>
       </c>
       <c r="D7">
-        <v>-0.47479204405819314</v>
+        <v>-0.3766975967772716</v>
       </c>
       <c r="E7">
-        <v>-0.0045841580764679297</v>
+        <v>-0.0036370477396646069</v>
       </c>
       <c r="F7">
-        <v>0.99960019094114627</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -2219,19 +2280,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.74367229501326226</v>
+        <v>0.69321822098959551</v>
       </c>
       <c r="C8">
-        <v>0.25612777304812584</v>
+        <v>0.30678177901040443</v>
       </c>
       <c r="D8">
-        <v>-0.41604452672994641</v>
+        <v>-0.32976427663755736</v>
       </c>
       <c r="E8">
-        <v>0.00012330197198108994</v>
+        <v>9.7731331590671767e-05</v>
       </c>
       <c r="F8">
-        <v>0.99960017609555629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2239,19 +2300,19 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>0.8717431452739588</v>
+        <v>0.79448863680896575</v>
       </c>
       <c r="C9">
-        <v>0.12805691363743821</v>
+        <v>0.20551136319103422</v>
       </c>
       <c r="D9">
-        <v>-0.30460782557670713</v>
+        <v>-0.24124029597275276</v>
       </c>
       <c r="E9">
-        <v>0.0043921566095386161</v>
+        <v>0.0034784567941999762</v>
       </c>
       <c r="F9">
-        <v>0.99960015779923295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2259,19 +2320,19 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>0.95052136113399499</v>
+        <v>0.85610120738767792</v>
       </c>
       <c r="C10">
-        <v>0.049278670562015639</v>
+        <v>0.14389879261232214</v>
       </c>
       <c r="D10">
-        <v>-0.15546116024027071</v>
+        <v>-0.12285238469632448</v>
       </c>
       <c r="E10">
-        <v>0.0076990288880895794</v>
+        <v>0.0060841180992465323</v>
       </c>
       <c r="F10">
-        <v>0.9996001033793438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2279,19 +2340,19 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.97774951582101022</v>
+        <v>0.877892987347623</v>
       </c>
       <c r="C11">
-        <v>0.022050522109904533</v>
+        <v>0.12210701265237693</v>
       </c>
       <c r="D11">
-        <v>0.010344659810835224</v>
+        <v>0.0081807649160151943</v>
       </c>
       <c r="E11">
-        <v>0.0095728151792430684</v>
+        <v>0.007570374666533034</v>
       </c>
       <c r="F11">
-        <v>0.99960011584665864</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="12">
@@ -2299,19 +2360,19 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.94533689578372249</v>
+        <v>0.8523368181681481</v>
       </c>
       <c r="C12">
-        <v>0.05446314401662547</v>
+        <v>0.14766318183185181</v>
       </c>
       <c r="D12">
-        <v>0.17436407088994307</v>
+        <v>0.1379205118982314</v>
       </c>
       <c r="E12">
-        <v>0.009854368548862279</v>
+        <v>0.0077947225466580214</v>
       </c>
       <c r="F12">
-        <v>0.99960011958477735</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="13">
@@ -2319,19 +2380,19 @@
         <v>55</v>
       </c>
       <c r="B13">
-        <v>0.86676275480297382</v>
+        <v>0.79081315700006416</v>
       </c>
       <c r="C13">
-        <v>0.13303731413738745</v>
+        <v>0.20918684299993581</v>
       </c>
       <c r="D13">
-        <v>0.31312742984257302</v>
+        <v>0.2482170342443894</v>
       </c>
       <c r="E13">
-        <v>0.0084901955052966039</v>
+        <v>0.0067302029385904764</v>
       </c>
       <c r="F13">
-        <v>0.99960017785315103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2339,19 +2400,19 @@
         <v>60</v>
       </c>
       <c r="B14">
-        <v>0.73610794088782927</v>
+        <v>0.68752646002804518</v>
       </c>
       <c r="C14">
-        <v>0.26369213408130815</v>
+        <v>0.31247353997195482</v>
       </c>
       <c r="D14">
-        <v>0.42380194899916929</v>
+        <v>0.33645817139793183</v>
       </c>
       <c r="E14">
-        <v>0.0052574253555405775</v>
+        <v>0.0041738923701593721</v>
       </c>
       <c r="F14">
-        <v>0.99960018990829269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2359,19 +2420,19 @@
         <v>65</v>
       </c>
       <c r="B15">
-        <v>0.58071001727577798</v>
+        <v>0.56427406064946151</v>
       </c>
       <c r="C15">
-        <v>0.41909002383614918</v>
+        <v>0.43572593935053849</v>
       </c>
       <c r="D15">
-        <v>0.48196498043639796</v>
+        <v>0.38334176018955191</v>
       </c>
       <c r="E15">
-        <v>0.00066999997280380681</v>
+        <v>0.00053289964899318383</v>
       </c>
       <c r="F15">
-        <v>0.99960012220741135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2379,19 +2440,19 @@
         <v>70</v>
       </c>
       <c r="B16">
-        <v>0.41539600884271727</v>
+        <v>0.43272596876307506</v>
       </c>
       <c r="C16">
-        <v>0.58440400520608338</v>
+        <v>0.56727403123692488</v>
       </c>
       <c r="D16">
-        <v>0.48308813991134208</v>
+        <v>0.38458874507582863</v>
       </c>
       <c r="E16">
-        <v>-0.0048936853694607103</v>
+        <v>-0.0038958859875596174</v>
       </c>
       <c r="F16">
-        <v>0.99960006809198187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2399,19 +2460,19 @@
         <v>75</v>
       </c>
       <c r="B17">
-        <v>0.25475109191553946</v>
+        <v>0.30447294684805898</v>
       </c>
       <c r="C17">
-        <v>0.74504964419137509</v>
+        <v>0.69552705315194108</v>
       </c>
       <c r="D17">
-        <v>0.42876857911031468</v>
+        <v>0.34197880604966485</v>
       </c>
       <c r="E17">
-        <v>-0.011154467385061021</v>
+        <v>-0.0088966207514046096</v>
       </c>
       <c r="F17">
-        <v>0.99960151191992819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2419,19 +2480,19 @@
         <v>80</v>
       </c>
       <c r="B18">
-        <v>0.11859221872924455</v>
+        <v>0.19538615956777183</v>
       </c>
       <c r="C18">
-        <v>0.88120781254079139</v>
+        <v>0.80461384043222817</v>
       </c>
       <c r="D18">
-        <v>0.31856735521727225</v>
+        <v>0.25449263376340314</v>
       </c>
       <c r="E18">
-        <v>-0.017552385472378237</v>
+        <v>-0.014022004246635508</v>
       </c>
       <c r="F18">
-        <v>0.99960010252756482</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2439,19 +2500,19 @@
         <v>85</v>
       </c>
       <c r="B19">
-        <v>0.033260542536368724</v>
+        <v>0.12682999439279607</v>
       </c>
       <c r="C19">
-        <v>0.96654402819587226</v>
+        <v>0.87317000560720404</v>
       </c>
       <c r="D19">
-        <v>0.17588166576993444</v>
+        <v>0.14065128808143601</v>
       </c>
       <c r="E19">
-        <v>-0.02309379317867483</v>
+        <v>-0.018467938332558959</v>
       </c>
       <c r="F19">
-        <v>0.99960917965708063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2459,19 +2520,436 @@
         <v>90</v>
       </c>
       <c r="B20">
-        <v>0.00078863485453073098</v>
+        <v>0.10052981023139827</v>
       </c>
       <c r="C20">
-        <v>0.99927148499621676</v>
+        <v>0.89947018976860171</v>
       </c>
       <c r="D20">
-        <v>-0.0024013010408336492</v>
+        <v>-0.0019214114340316037</v>
       </c>
       <c r="E20">
-        <v>-0.0279821891352676</v>
+        <v>-0.022390069899387799</v>
       </c>
       <c r="F20">
-        <v>1.0001202433158916</v>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.00049051861840802521</v>
+      </c>
+      <c r="C2">
+        <v>0.99950948138159201</v>
+      </c>
+      <c r="D2">
+        <v>-0.0048011701708678672</v>
+      </c>
+      <c r="E2">
+        <v>-0.021615416234382935</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.030955708681342547</v>
+      </c>
+      <c r="C3">
+        <v>0.96904429131865755</v>
+      </c>
+      <c r="D3">
+        <v>-0.17197481007437043</v>
+      </c>
+      <c r="E3">
+        <v>-0.020545484019007274</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.11925500611564953</v>
+      </c>
+      <c r="C4">
+        <v>0.88074499388435057</v>
+      </c>
+      <c r="D4">
+        <v>-0.32358349303149325</v>
+      </c>
+      <c r="E4">
+        <v>-0.018082369272176983</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.24877826587760757</v>
+      </c>
+      <c r="C5">
+        <v>0.75122173412239246</v>
+      </c>
+      <c r="D5">
+        <v>-0.43206008540974156</v>
+      </c>
+      <c r="E5">
+        <v>-0.014550679838937654</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.42285444018105367</v>
+      </c>
+      <c r="C6">
+        <v>0.57714555981894633</v>
+      </c>
+      <c r="D6">
+        <v>-0.49391670370468899</v>
+      </c>
+      <c r="E6">
+        <v>-0.0097391882822389225</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.59702770662930416</v>
+      </c>
+      <c r="C7">
+        <v>0.40297229337069579</v>
+      </c>
+      <c r="D7">
+        <v>-0.49047242330697849</v>
+      </c>
+      <c r="E7">
+        <v>-0.0047355534885751074</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0.75277028594524342</v>
+      </c>
+      <c r="C8">
+        <v>0.24722971405475658</v>
+      </c>
+      <c r="D8">
+        <v>-0.43140139720409831</v>
+      </c>
+      <c r="E8">
+        <v>0.00012785324544165925</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0.88677250901731708</v>
+      </c>
+      <c r="C9">
+        <v>0.11322749098268288</v>
+      </c>
+      <c r="D9">
+        <v>-0.31683774138283183</v>
+      </c>
+      <c r="E9">
+        <v>0.0045685004229001824</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.97260076801014561</v>
+      </c>
+      <c r="C10">
+        <v>0.02739923198985433</v>
+      </c>
+      <c r="D10">
+        <v>-0.16304390480808534</v>
+      </c>
+      <c r="E10">
+        <v>0.0080745552857337307</v>
+      </c>
+      <c r="F10">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>0.99978264670776162</v>
+      </c>
+      <c r="C11">
+        <v>0.00021735329223848161</v>
+      </c>
+      <c r="D11">
+        <v>0.010819476620927537</v>
+      </c>
+      <c r="E11">
+        <v>0.010012204550196626</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.96550038379422631</v>
+      </c>
+      <c r="C12">
+        <v>0.034499616205773589</v>
+      </c>
+      <c r="D12">
+        <v>0.18221783223087198</v>
+      </c>
+      <c r="E12">
+        <v>0.010298232117505217</v>
+      </c>
+      <c r="F12">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0.88024794707427845</v>
+      </c>
+      <c r="C13">
+        <v>0.1197520529257215</v>
+      </c>
+      <c r="D13">
+        <v>0.32455208929998358</v>
+      </c>
+      <c r="E13">
+        <v>0.0087999658515853889</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.74340730834723301</v>
+      </c>
+      <c r="C14">
+        <v>0.25659269165276699</v>
+      </c>
+      <c r="D14">
+        <v>0.43671905212285606</v>
+      </c>
+      <c r="E14">
+        <v>0.005417666962836104</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>0.58267969864935854</v>
+      </c>
+      <c r="C15">
+        <v>0.41732030135064158</v>
+      </c>
+      <c r="D15">
+        <v>0.4931162103642871</v>
+      </c>
+      <c r="E15">
+        <v>0.00068550177075943765</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>0.41385015739769881</v>
+      </c>
+      <c r="C16">
+        <v>0.58614984260230119</v>
+      </c>
+      <c r="D16">
+        <v>0.49249701921703393</v>
+      </c>
+      <c r="E16">
+        <v>-0.0049889973657554982</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>0.25188798711515259</v>
+      </c>
+      <c r="C17">
+        <v>0.74811201288484741</v>
+      </c>
+      <c r="D17">
+        <v>0.43395043583561949</v>
+      </c>
+      <c r="E17">
+        <v>-0.011289274025875064</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>0.11653015059370737</v>
+      </c>
+      <c r="C18">
+        <v>0.8834698494062927</v>
+      </c>
+      <c r="D18">
+        <v>0.32037366327737593</v>
+      </c>
+      <c r="E18">
+        <v>-0.017651909214637333</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>0.032630651367381455</v>
+      </c>
+      <c r="C19">
+        <v>0.96736934863261848</v>
+      </c>
+      <c r="D19">
+        <v>0.17615590724660998</v>
+      </c>
+      <c r="E19">
+        <v>-0.02312980191168083</v>
+      </c>
+      <c r="F19">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>0.00078929562808398919</v>
+      </c>
+      <c r="C20">
+        <v>0.99921070437191606</v>
+      </c>
+      <c r="D20">
+        <v>-0.0024011532773616806</v>
+      </c>
+      <c r="E20">
+        <v>-0.027980467258106174</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
